--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik\Downloads\GIT\Git-hub-tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep\Data Science\New Repo\Git-hub-tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFAF3BB-E790-4004-82CC-5E82668A8F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DF8E79-FA27-49B5-A068-A01DDB3D0BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,14 +340,14 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>123</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
